--- a/data_analyzed/Work Ratio/Work Ratio_trainings_pregame.xlsx
+++ b/data_analyzed/Work Ratio/Work Ratio_trainings_pregame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,42 +441,112 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
         </is>
       </c>
     </row>
@@ -485,28 +555,62 @@
         <v>44803</v>
       </c>
       <c r="B2" t="n">
+        <v>15.8203</v>
+      </c>
+      <c r="C2" t="n">
         <v>14.0731</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>17.2049</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>20.2307</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.0505</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.9108</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
+        <v>14.4191</v>
+      </c>
+      <c r="J2" t="n">
+        <v>13.5592</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>13.2302</v>
+      </c>
+      <c r="M2" t="n">
         <v>16.1707</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
+        <v>18.7414</v>
+      </c>
+      <c r="O2" t="n">
         <v>16.5156</v>
       </c>
-      <c r="G2" t="n">
+      <c r="P2" t="n">
+        <v>15.2876</v>
+      </c>
+      <c r="Q2" t="n">
         <v>11.9207</v>
       </c>
-      <c r="H2" t="n">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
         <v>13.9856</v>
       </c>
-      <c r="I2" t="n">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
+        <v>18.7996</v>
+      </c>
+      <c r="V2" t="n">
         <v>15.8072</v>
+      </c>
+      <c r="W2" t="n">
+        <v>14.3708</v>
       </c>
     </row>
     <row r="3">
@@ -514,28 +618,68 @@
         <v>44807</v>
       </c>
       <c r="B3" t="n">
+        <v>9.793900000000001</v>
+      </c>
+      <c r="C3" t="n">
         <v>7.1131</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>6.2012</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>3.8481</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8.040800000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.297</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.4767</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
+        <v>7.5679</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.5123</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.2128</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.7423</v>
+      </c>
+      <c r="M3" t="n">
         <v>8.332800000000001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="N3" t="n">
+        <v>9.273300000000001</v>
+      </c>
+      <c r="O3" t="n">
         <v>11.082</v>
       </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
+        <v>6.7916</v>
+      </c>
+      <c r="Q3" t="n">
         <v>4.405</v>
       </c>
-      <c r="H3" t="n">
+      <c r="R3" t="n">
+        <v>6.0587</v>
+      </c>
+      <c r="S3" t="n">
         <v>8.201700000000001</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>8.306699999999999</v>
+      </c>
+      <c r="V3" t="n">
         <v>8.5824</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8.6075</v>
       </c>
     </row>
     <row r="4">
@@ -543,83 +687,195 @@
         <v>44812</v>
       </c>
       <c r="B4" t="n">
+        <v>10.8107</v>
+      </c>
+      <c r="C4" t="n">
         <v>8.6637</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>10.3986</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>3.9678</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.3591</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.375999999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>14.2764</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
+        <v>12.3825</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.7108</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.2395</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15.986</v>
+      </c>
+      <c r="M4" t="n">
         <v>14.5628</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
+        <v>13.2121</v>
+      </c>
+      <c r="O4" t="n">
         <v>18.4323</v>
       </c>
-      <c r="G4" t="n">
+      <c r="P4" t="n">
+        <v>14.2141</v>
+      </c>
+      <c r="Q4" t="n">
         <v>9.5451</v>
       </c>
-      <c r="H4" t="n">
+      <c r="R4" t="n">
+        <v>11.1606</v>
+      </c>
+      <c r="S4" t="n">
         <v>10.9264</v>
       </c>
-      <c r="I4" t="n">
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>15.499</v>
+      </c>
+      <c r="V4" t="n">
         <v>12.1438</v>
       </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>44819</v>
       </c>
       <c r="B5" t="n">
+        <v>11.1859</v>
+      </c>
+      <c r="C5" t="n">
         <v>8.269500000000001</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.0078</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.6853</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.977</v>
+      </c>
+      <c r="H5" t="n">
         <v>7.8411</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
+        <v>8.245699999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.218999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.4288</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10.3625</v>
+      </c>
+      <c r="M5" t="n">
         <v>9.3619</v>
       </c>
-      <c r="F5" t="n">
+      <c r="N5" t="n">
+        <v>13.0407</v>
+      </c>
+      <c r="O5" t="n">
         <v>11.9271</v>
       </c>
-      <c r="G5" t="n">
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
         <v>9.6564</v>
       </c>
-      <c r="H5" t="n">
+      <c r="R5" t="n">
+        <v>8.1462</v>
+      </c>
+      <c r="S5" t="n">
         <v>9.1576</v>
       </c>
-      <c r="I5" t="n">
+      <c r="T5" t="n">
+        <v>3.5187</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11.8114</v>
+      </c>
+      <c r="V5" t="n">
         <v>9.825200000000001</v>
       </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>44821</v>
       </c>
       <c r="B6" t="n">
+        <v>14.8602</v>
+      </c>
+      <c r="C6" t="n">
         <v>10.404</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>3.8997</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.0503</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.3825</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.1056</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
+        <v>15.3125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.7627</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.6309</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11.7589</v>
+      </c>
+      <c r="M6" t="n">
         <v>8.9039</v>
       </c>
-      <c r="F6" t="n">
+      <c r="N6" t="n">
+        <v>13.7584</v>
+      </c>
+      <c r="O6" t="n">
         <v>19.2116</v>
       </c>
-      <c r="G6" t="n">
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
         <v>8.476900000000001</v>
       </c>
-      <c r="H6" t="n">
+      <c r="R6" t="n">
+        <v>9.994300000000001</v>
+      </c>
+      <c r="S6" t="n">
         <v>9.744400000000001</v>
       </c>
-      <c r="I6" t="n">
+      <c r="T6" t="n">
+        <v>3.6805</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
         <v>10.5224</v>
       </c>
+      <c r="W6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
